--- a/env/vs_code_extensions.xlsx
+++ b/env/vs_code_extensions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="222">
   <si>
     <t>aaron-bond</t>
   </si>
@@ -732,7 +732,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +742,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -769,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -777,6 +789,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,6 +901,7 @@
     <sortCondition ref="A2:A99"/>
     <sortCondition ref="B2:B99"/>
     <sortCondition ref="C2:C99"/>
+    <sortCondition ref="D2:D99"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="3" name="Group" dataDxfId="3"/>
@@ -1160,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1190,7 +1208,7 @@
       <c r="A2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1204,7 +1222,7 @@
       <c r="A3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1215,30 +1233,30 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1257,16 +1275,16 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1274,13 +1292,13 @@
       <c r="A8" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1288,7 +1306,7 @@
       <c r="A9" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1302,13 +1320,13 @@
       <c r="A10" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1316,13 +1334,13 @@
       <c r="A11" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1330,7 +1348,7 @@
       <c r="A12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1342,7 +1360,7 @@
       <c r="A13" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,14 +1369,14 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1375,21 +1393,21 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1487,30 +1505,30 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1557,14 +1575,14 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1573,10 +1591,10 @@
         <v>196</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1593,7 +1611,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1607,21 +1625,21 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1635,7 +1653,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1649,7 +1667,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1687,7 +1705,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1701,7 +1719,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1715,7 +1733,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1729,7 +1747,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1761,10 +1779,10 @@
       <c r="B44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1775,10 +1793,10 @@
       <c r="B45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1789,25 +1807,25 @@
       <c r="B46" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>220</v>
+      <c r="C46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>174</v>
+      <c r="C47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1818,10 +1836,10 @@
         <v>195</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1831,11 +1849,11 @@
       <c r="B49" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>83</v>
+      <c r="C49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1846,10 +1864,10 @@
         <v>195</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1859,11 +1877,11 @@
       <c r="B51" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>146</v>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1873,11 +1891,11 @@
       <c r="B52" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>96</v>
+      <c r="C52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1885,13 +1903,13 @@
         <v>186</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>162</v>
+        <v>209</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1902,24 +1920,24 @@
         <v>209</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>110</v>
+        <v>197</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1929,25 +1947,25 @@
       <c r="B56" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>27</v>
+      <c r="C56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1958,10 +1976,10 @@
         <v>217</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1969,13 +1987,13 @@
         <v>186</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1986,7 +2004,7 @@
         <v>184</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>99</v>
@@ -2000,7 +2018,7 @@
         <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>99</v>
@@ -2014,10 +2032,10 @@
         <v>184</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2028,10 +2046,10 @@
         <v>184</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2042,10 +2060,10 @@
         <v>184</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2053,55 +2071,55 @@
         <v>186</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>96</v>
+      <c r="A66" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>106</v>
+      <c r="A67" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>81</v>
+      <c r="A68" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2112,10 +2130,10 @@
         <v>202</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2126,24 +2144,24 @@
         <v>202</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>25</v>
+      <c r="C71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2151,13 +2169,13 @@
         <v>186</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2168,10 +2186,10 @@
         <v>194</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2182,10 +2200,10 @@
         <v>194</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2193,13 +2211,13 @@
         <v>186</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>181</v>
+        <v>210</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2210,10 +2228,10 @@
         <v>210</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2224,24 +2242,22 @@
         <v>210</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>57</v>
+      <c r="A78" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2333,14 +2349,14 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2357,26 +2373,26 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="7"/>
+      <c r="C88" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="7"/>
+      <c r="C89" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2487,26 +2503,26 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="6"/>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="10"/>
+      <c r="B98" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="6"/>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="10"/>
+      <c r="B99" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="8" t="s">
         <v>88</v>
       </c>
     </row>

--- a/env/vs_code_extensions.xlsx
+++ b/env/vs_code_extensions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoke\Documents\Python Scripts\TestPathPackage\env\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsalomon\Python Scripts\TestPathPackage\env\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="284">
   <si>
     <t>aaron-bond</t>
   </si>
@@ -545,9 +545,6 @@
     <t>trond-snekvik</t>
   </si>
   <si>
-    <t>simple-rst</t>
-  </si>
-  <si>
     <t>tushortz</t>
   </si>
   <si>
@@ -690,13 +687,202 @@
   </si>
   <si>
     <t>py-add-to-path</t>
+  </si>
+  <si>
+    <t>Python Test Explorer for Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Test Explorer UI</t>
+  </si>
+  <si>
+    <t>Regex Previewer</t>
+  </si>
+  <si>
+    <t>Regexp Explain</t>
+  </si>
+  <si>
+    <t>reStructuredText Syntax highlighting</t>
+  </si>
+  <si>
+    <t>TODO Highlight v2</t>
+  </si>
+  <si>
+    <t>XML Tools</t>
+  </si>
+  <si>
+    <t>0.1.2</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>13.2.4</t>
+  </si>
+  <si>
+    <t>2.8.0</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>0.7.0</t>
+  </si>
+  <si>
+    <t>0.1.5</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>1.0.5</t>
+  </si>
+  <si>
+    <t>0.46.0</t>
+  </si>
+  <si>
+    <t>0.0.3</t>
+  </si>
+  <si>
+    <t>0.0.4</t>
+  </si>
+  <si>
+    <t>0.6.19</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>12.0.4</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t>2.1.84</t>
+  </si>
+  <si>
+    <t>4.18.4</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>2.7.4</t>
+  </si>
+  <si>
+    <t>4.2.53</t>
+  </si>
+  <si>
+    <t>0.1.3</t>
+  </si>
+  <si>
+    <t>0.0.215</t>
+  </si>
+  <si>
+    <t>2.21.1</t>
+  </si>
+  <si>
+    <t>8.23.0</t>
+  </si>
+  <si>
+    <t>2.0.4</t>
+  </si>
+  <si>
+    <t>0.0.6</t>
+  </si>
+  <si>
+    <t>1.14.2</t>
+  </si>
+  <si>
+    <t>0.147.0</t>
+  </si>
+  <si>
+    <t>177.0.0</t>
+  </si>
+  <si>
+    <t>0.0.11</t>
+  </si>
+  <si>
+    <t>1.30.0</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>2022.2.1924087327</t>
+  </si>
+  <si>
+    <t>2022.3.1</t>
+  </si>
+  <si>
+    <t>2022.2.1030672458</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.0.6</t>
+  </si>
+  <si>
+    <t>1.0.7</t>
+  </si>
+  <si>
+    <t>0.6.1</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>0.19.1</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>0.0.5</t>
+  </si>
+  <si>
+    <t>0.9.3</t>
+  </si>
+  <si>
+    <t>2.0.5</t>
+  </si>
+  <si>
+    <t>2.1.7</t>
+  </si>
+  <si>
+    <t>0.1.1</t>
+  </si>
+  <si>
+    <t>3.10.0</t>
+  </si>
+  <si>
+    <t>1.2.17</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +906,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,9 +917,17 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +952,24 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -778,10 +991,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -794,8 +1010,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
+    <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1176,26 +1403,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>137</v>
@@ -1203,13 +1433,22 @@
       <c r="D1" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="H1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>122</v>
@@ -1217,13 +1456,22 @@
       <c r="D2" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2">
+        <v>76923</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>120</v>
@@ -1231,13 +1479,22 @@
       <c r="D3" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>139</v>
@@ -1245,13 +1502,22 @@
       <c r="D4" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>40</v>
@@ -1259,13 +1525,22 @@
       <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -1273,13 +1548,22 @@
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>132</v>
@@ -1287,66 +1571,111 @@
       <c r="D7" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="14" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
@@ -1355,10 +1684,19 @@
       <c r="D12" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
@@ -1367,10 +1705,19 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="9" t="s">
@@ -1379,25 +1726,43 @@
       <c r="D14" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="1" t="s">
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>91</v>
@@ -1405,27 +1770,45 @@
       <c r="D16" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>86</v>
@@ -1433,13 +1816,22 @@
       <c r="D18" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1447,13 +1839,22 @@
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="H19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1461,13 +1862,22 @@
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1475,41 +1885,68 @@
       <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>136</v>
@@ -1517,13 +1954,22 @@
       <c r="D24" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>46</v>
@@ -1531,13 +1977,22 @@
       <c r="D25" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -1545,13 +2000,22 @@
       <c r="D26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
@@ -1559,13 +2023,22 @@
       <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -1573,10 +2046,19 @@
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="9" t="s">
@@ -1585,104 +2067,176 @@
       <c r="D29" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1" t="s">
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="1" t="s">
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="H35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
@@ -1691,10 +2245,19 @@
       <c r="D37" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="1" t="s">
@@ -1703,13 +2266,22 @@
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="H38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>134</v>
@@ -1717,13 +2289,22 @@
       <c r="D39" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="H39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>48</v>
@@ -1731,13 +2312,22 @@
       <c r="D40" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>22</v>
@@ -1745,24 +2335,42 @@
       <c r="D41" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="1" t="s">
@@ -1771,27 +2379,45 @@
       <c r="D43" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="H43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>178</v>
+      </c>
+      <c r="H44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>165</v>
@@ -1799,27 +2425,45 @@
       <c r="D45" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>173</v>
+      </c>
+      <c r="H46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>72</v>
@@ -1827,13 +2471,22 @@
       <c r="D47" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="H47" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>84</v>
@@ -1841,27 +2494,45 @@
       <c r="D48" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="H49" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>147</v>
@@ -1869,41 +2540,68 @@
       <c r="D50" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="H50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="H51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" t="s">
+        <v>163</v>
+      </c>
+      <c r="J51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="H52" t="s">
+        <v>164</v>
+      </c>
+      <c r="I52" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>52</v>
@@ -1911,13 +2609,22 @@
       <c r="D53" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" t="s">
+        <v>115</v>
+      </c>
+      <c r="J53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>111</v>
@@ -1925,27 +2632,45 @@
       <c r="D54" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" t="s">
+        <v>116</v>
+      </c>
+      <c r="J54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="H55" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" t="s">
+        <v>167</v>
+      </c>
+      <c r="J55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>116</v>
@@ -1953,27 +2678,45 @@
       <c r="D56" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="H57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>74</v>
@@ -1981,13 +2724,22 @@
       <c r="D58" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="H58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I58" t="s">
+        <v>169</v>
+      </c>
+      <c r="J58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>100</v>
@@ -1995,13 +2747,22 @@
       <c r="D59" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="H59" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>101</v>
@@ -2009,13 +2770,22 @@
       <c r="D60" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="H60" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" t="s">
+        <v>126</v>
+      </c>
+      <c r="J60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>102</v>
@@ -2023,27 +2793,45 @@
       <c r="D61" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="H61" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" t="s">
+        <v>128</v>
+      </c>
+      <c r="J61" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="H62" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" t="s">
+        <v>174</v>
+      </c>
+      <c r="J62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>60</v>
@@ -2051,13 +2839,22 @@
       <c r="D63" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="H63" t="s">
+        <v>129</v>
+      </c>
+      <c r="I63" t="s">
+        <v>130</v>
+      </c>
+      <c r="J63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>62</v>
@@ -2065,27 +2862,45 @@
       <c r="D64" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="H64" t="s">
+        <v>176</v>
+      </c>
+      <c r="I64" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="H65" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>107</v>
@@ -2094,12 +2909,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>82</v>
@@ -2108,12 +2923,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>6</v>
@@ -2122,26 +2937,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="1" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>26</v>
@@ -2150,12 +2965,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>10</v>
@@ -2164,12 +2979,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>24</v>
@@ -2178,115 +2993,115 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="1" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="1" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="1" t="s">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>58</v>
+        <v>209</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="3" t="s">
-        <v>145</v>
+      <c r="C79" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B80" s="4"/>
-      <c r="C80" s="3" t="s">
-        <v>158</v>
+      <c r="C80" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="3" t="s">
@@ -2296,9 +3111,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="3" t="s">
@@ -2308,37 +3123,37 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" s="3" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84" s="3" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="1" t="s">
@@ -2348,9 +3163,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="8" t="s">
@@ -2360,21 +3175,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="1" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
@@ -2384,9 +3199,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
@@ -2396,26 +3211,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="1" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
@@ -2424,40 +3239,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="D93" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>39</v>
@@ -2466,9 +3281,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="1" t="s">
@@ -2478,9 +3293,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="1" t="s">
@@ -2490,22 +3305,22 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="1" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>4</v>
@@ -2514,10 +3329,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>89</v>
